--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H2">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I2">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J2">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>328.5062863333333</v>
+        <v>293.7577056666667</v>
       </c>
       <c r="N2">
-        <v>985.518859</v>
+        <v>881.273117</v>
       </c>
       <c r="O2">
-        <v>0.9485223498994318</v>
+        <v>0.9369756110667984</v>
       </c>
       <c r="P2">
-        <v>0.9514072518130271</v>
+        <v>0.940660486426629</v>
       </c>
       <c r="Q2">
-        <v>13639.45157708318</v>
+        <v>8642.339950405107</v>
       </c>
       <c r="R2">
-        <v>122755.0641937487</v>
+        <v>77781.05955364596</v>
       </c>
       <c r="S2">
-        <v>0.6929064162965652</v>
+        <v>0.5815994965795216</v>
       </c>
       <c r="T2">
-        <v>0.7259757080727383</v>
+        <v>0.628638641477329</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H3">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I3">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J3">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.344899</v>
       </c>
       <c r="O3">
-        <v>0.01380638958279946</v>
+        <v>0.01525159481997056</v>
       </c>
       <c r="P3">
-        <v>0.0138483812973136</v>
+        <v>0.01531157527761154</v>
       </c>
       <c r="Q3">
-        <v>198.531518196598</v>
+        <v>140.67545159468</v>
       </c>
       <c r="R3">
-        <v>1786.783663769382</v>
+        <v>1266.07906435212</v>
       </c>
       <c r="S3">
-        <v>0.01008572536938756</v>
+        <v>0.009466969859792153</v>
       </c>
       <c r="T3">
-        <v>0.01056707146053398</v>
+        <v>0.01023264825118851</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H4">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I4">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J4">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.094370666666666</v>
+        <v>7.906212666666666</v>
       </c>
       <c r="N4">
-        <v>15.283112</v>
+        <v>23.718638</v>
       </c>
       <c r="O4">
-        <v>0.0147093819419403</v>
+        <v>0.02521781829607561</v>
       </c>
       <c r="P4">
-        <v>0.01475412008028422</v>
+        <v>0.02531699325449539</v>
       </c>
       <c r="Q4">
-        <v>211.5162628979573</v>
+        <v>232.6004604048267</v>
       </c>
       <c r="R4">
-        <v>1903.646366081616</v>
+        <v>2093.40414364344</v>
       </c>
       <c r="S4">
-        <v>0.01074537160711912</v>
+        <v>0.01565320404565559</v>
       </c>
       <c r="T4">
-        <v>0.01125819963203257</v>
+        <v>0.01691921843794601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H5">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I5">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J5">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.150518</v>
+        <v>3.6844455</v>
       </c>
       <c r="N5">
-        <v>6.301036</v>
+        <v>7.368891000000001</v>
       </c>
       <c r="O5">
-        <v>0.00909674140521077</v>
+        <v>0.01175198303639443</v>
       </c>
       <c r="P5">
-        <v>0.006082939245239698</v>
+        <v>0.007865466969060864</v>
       </c>
       <c r="Q5">
-        <v>130.808266055908</v>
+        <v>108.39623923218</v>
       </c>
       <c r="R5">
-        <v>784.8495963354479</v>
+        <v>650.3774353930801</v>
       </c>
       <c r="S5">
-        <v>0.006645273553890932</v>
+        <v>0.007294690851126975</v>
       </c>
       <c r="T5">
-        <v>0.00464161495228354</v>
+        <v>0.005256451760611821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H6">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I6">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J6">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.801979333333333</v>
+        <v>3.386921</v>
       </c>
       <c r="N6">
-        <v>14.405938</v>
+        <v>10.160763</v>
       </c>
       <c r="O6">
-        <v>0.01386513717061757</v>
+        <v>0.01080299278076119</v>
       </c>
       <c r="P6">
-        <v>0.01390730756413547</v>
+        <v>0.01084547807220323</v>
       </c>
       <c r="Q6">
-        <v>199.3762899401426</v>
+        <v>99.64308034315999</v>
       </c>
       <c r="R6">
-        <v>1794.386609461284</v>
+        <v>896.7877230884401</v>
       </c>
       <c r="S6">
-        <v>0.01012864115365499</v>
+        <v>0.006705633624432718</v>
       </c>
       <c r="T6">
-        <v>0.01061203542123385</v>
+        <v>0.007247978096094709</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>21.551639</v>
       </c>
       <c r="I7">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J7">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>328.5062863333333</v>
+        <v>293.7577056666667</v>
       </c>
       <c r="N7">
-        <v>985.518859</v>
+        <v>881.273117</v>
       </c>
       <c r="O7">
-        <v>0.9485223498994318</v>
+        <v>0.9369756110667984</v>
       </c>
       <c r="P7">
-        <v>0.9514072518130271</v>
+        <v>0.940660486426629</v>
       </c>
       <c r="Q7">
-        <v>2359.949630762211</v>
+        <v>2110.320008665418</v>
       </c>
       <c r="R7">
-        <v>21239.5466768599</v>
+        <v>18992.88007798876</v>
       </c>
       <c r="S7">
-        <v>0.11988929555198</v>
+        <v>0.1420172154422098</v>
       </c>
       <c r="T7">
-        <v>0.1256110698092289</v>
+        <v>0.1535034158506653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>21.551639</v>
       </c>
       <c r="I8">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J8">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>14.344899</v>
       </c>
       <c r="O8">
-        <v>0.01380638958279946</v>
+        <v>0.01525159481997056</v>
       </c>
       <c r="P8">
-        <v>0.0138483812973136</v>
+        <v>0.01531157527761154</v>
       </c>
       <c r="Q8">
         <v>34.35067608216234</v>
       </c>
       <c r="R8">
-        <v>309.1560847394611</v>
+        <v>309.156084739461</v>
       </c>
       <c r="S8">
-        <v>0.001745070447073305</v>
+        <v>0.002311681330658064</v>
       </c>
       <c r="T8">
-        <v>0.001828354772960604</v>
+        <v>0.002498647642888208</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>21.551639</v>
       </c>
       <c r="I9">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J9">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.094370666666666</v>
+        <v>7.906212666666666</v>
       </c>
       <c r="N9">
-        <v>15.283112</v>
+        <v>23.718638</v>
       </c>
       <c r="O9">
-        <v>0.0147093819419403</v>
+        <v>0.02521781829607561</v>
       </c>
       <c r="P9">
-        <v>0.01475412008028422</v>
+        <v>0.02531699325449539</v>
       </c>
       <c r="Q9">
-        <v>36.59734584672978</v>
+        <v>56.79728041640911</v>
       </c>
       <c r="R9">
-        <v>329.376112620568</v>
+        <v>511.175523747682</v>
       </c>
       <c r="S9">
-        <v>0.001859204940412016</v>
+        <v>0.00382225993039316</v>
       </c>
       <c r="T9">
-        <v>0.001947936389854782</v>
+        <v>0.004131400223258363</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>21.551639</v>
       </c>
       <c r="I10">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J10">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.150518</v>
+        <v>3.6844455</v>
       </c>
       <c r="N10">
-        <v>6.301036</v>
+        <v>7.368891000000001</v>
       </c>
       <c r="O10">
-        <v>0.00909674140521077</v>
+        <v>0.01175198303639443</v>
       </c>
       <c r="P10">
-        <v>0.006082939245239698</v>
+        <v>0.007865466969060864</v>
       </c>
       <c r="Q10">
-        <v>22.63294219966733</v>
+        <v>26.4686131103915</v>
       </c>
       <c r="R10">
-        <v>135.797653198004</v>
+        <v>158.811678662349</v>
       </c>
       <c r="S10">
-        <v>0.001149790428243341</v>
+        <v>0.001781245837180962</v>
       </c>
       <c r="T10">
-        <v>0.0008031098193996758</v>
+        <v>0.001283540729554815</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>21.551639</v>
       </c>
       <c r="I11">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J11">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.801979333333333</v>
+        <v>3.386921</v>
       </c>
       <c r="N11">
-        <v>14.405938</v>
+        <v>10.160763</v>
       </c>
       <c r="O11">
-        <v>0.01386513717061757</v>
+        <v>0.01080299278076119</v>
       </c>
       <c r="P11">
-        <v>0.01390730756413547</v>
+        <v>0.01084547807220323</v>
       </c>
       <c r="Q11">
-        <v>34.49684169248688</v>
+        <v>24.33123290450633</v>
       </c>
       <c r="R11">
-        <v>310.471575232382</v>
+        <v>218.981096140557</v>
       </c>
       <c r="S11">
-        <v>0.001752495898797914</v>
+        <v>0.00163740756434334</v>
       </c>
       <c r="T11">
-        <v>0.001836134607937953</v>
+        <v>0.001769839335912767</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H12">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I12">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J12">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>328.5062863333333</v>
+        <v>293.7577056666667</v>
       </c>
       <c r="N12">
-        <v>985.518859</v>
+        <v>881.273117</v>
       </c>
       <c r="O12">
-        <v>0.9485223498994318</v>
+        <v>0.9369756110667984</v>
       </c>
       <c r="P12">
-        <v>0.9514072518130271</v>
+        <v>0.940660486426629</v>
       </c>
       <c r="Q12">
-        <v>75.52162419031532</v>
+        <v>113.7751990625214</v>
       </c>
       <c r="R12">
-        <v>679.694617712838</v>
+        <v>1023.976791562693</v>
       </c>
       <c r="S12">
-        <v>0.003836621852049428</v>
+        <v>0.007656676186973591</v>
       </c>
       <c r="T12">
-        <v>0.004019726474082487</v>
+        <v>0.008275939963357206</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H13">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I13">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J13">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>14.344899</v>
       </c>
       <c r="O13">
-        <v>0.01380638958279946</v>
+        <v>0.01525159481997056</v>
       </c>
       <c r="P13">
-        <v>0.0138483812973136</v>
+        <v>0.01531157527761154</v>
       </c>
       <c r="Q13">
-        <v>1.099268736902</v>
+        <v>1.851972683352333</v>
       </c>
       <c r="R13">
-        <v>9.893418632117999</v>
+        <v>16.667754150171</v>
       </c>
       <c r="S13">
-        <v>5.584464717873247E-05</v>
+        <v>0.0001246313367094815</v>
       </c>
       <c r="T13">
-        <v>5.850985980811088E-05</v>
+        <v>0.0001347113858511389</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H14">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I14">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J14">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.094370666666666</v>
+        <v>7.906212666666666</v>
       </c>
       <c r="N14">
-        <v>15.283112</v>
+        <v>23.718638</v>
       </c>
       <c r="O14">
-        <v>0.0147093819419403</v>
+        <v>0.02521781829607561</v>
       </c>
       <c r="P14">
-        <v>0.01475412008028422</v>
+        <v>0.02531699325449539</v>
       </c>
       <c r="Q14">
-        <v>1.171165250042666</v>
+        <v>3.062152592522444</v>
       </c>
       <c r="R14">
-        <v>10.540487250384</v>
+        <v>27.559373332702</v>
       </c>
       <c r="S14">
-        <v>5.949710746886766E-05</v>
+        <v>0.0002060722462297087</v>
       </c>
       <c r="T14">
-        <v>6.233663552121608E-05</v>
+        <v>0.0002227391489812151</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H15">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I15">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J15">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.150518</v>
+        <v>3.6844455</v>
       </c>
       <c r="N15">
-        <v>6.301036</v>
+        <v>7.368891000000001</v>
       </c>
       <c r="O15">
-        <v>0.00909674140521077</v>
+        <v>0.01175198303639443</v>
       </c>
       <c r="P15">
-        <v>0.006082939245239698</v>
+        <v>0.007865466969060864</v>
       </c>
       <c r="Q15">
-        <v>0.7242851850919999</v>
+        <v>1.4270213584565</v>
       </c>
       <c r="R15">
-        <v>4.345711110551999</v>
+        <v>8.562128150739001</v>
       </c>
       <c r="S15">
-        <v>3.679487031736769E-05</v>
+        <v>9.603358678891374E-05</v>
       </c>
       <c r="T15">
-        <v>2.570061545960412E-05</v>
+        <v>6.92004536801538E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H16">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I16">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J16">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.801979333333333</v>
+        <v>3.386921</v>
       </c>
       <c r="N16">
-        <v>14.405938</v>
+        <v>10.160763</v>
       </c>
       <c r="O16">
-        <v>0.01386513717061757</v>
+        <v>0.01080299278076119</v>
       </c>
       <c r="P16">
-        <v>0.01390730756413547</v>
+        <v>0.01084547807220323</v>
       </c>
       <c r="Q16">
-        <v>1.103946236857333</v>
+        <v>1.311787243536333</v>
       </c>
       <c r="R16">
-        <v>9.935516131715998</v>
+        <v>11.806085191827</v>
       </c>
       <c r="S16">
-        <v>5.608227181583465E-05</v>
+        <v>8.827873062600451E-05</v>
       </c>
       <c r="T16">
-        <v>5.87588251952375E-05</v>
+        <v>9.541861988954924E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H17">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I17">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J17">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>328.5062863333333</v>
+        <v>293.7577056666667</v>
       </c>
       <c r="N17">
-        <v>985.518859</v>
+        <v>881.273117</v>
       </c>
       <c r="O17">
-        <v>0.9485223498994318</v>
+        <v>0.9369756110667984</v>
       </c>
       <c r="P17">
-        <v>0.9514072518130271</v>
+        <v>0.940660486426629</v>
       </c>
       <c r="Q17">
-        <v>2388.888023280553</v>
+        <v>2973.493342550001</v>
       </c>
       <c r="R17">
-        <v>14333.32813968332</v>
+        <v>17840.96005530001</v>
       </c>
       <c r="S17">
-        <v>0.1213594131545791</v>
+        <v>0.2001057862840231</v>
       </c>
       <c r="T17">
-        <v>0.08476756632070104</v>
+        <v>0.1441934187599964</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H18">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I18">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J18">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>14.344899</v>
       </c>
       <c r="O18">
-        <v>0.01380638958279946</v>
+        <v>0.01525159481997056</v>
       </c>
       <c r="P18">
-        <v>0.0138483812973136</v>
+        <v>0.01531157527761154</v>
       </c>
       <c r="Q18">
-        <v>34.77189411782651</v>
+        <v>48.400956358745</v>
       </c>
       <c r="R18">
-        <v>208.631364706959</v>
+        <v>290.40573815247</v>
       </c>
       <c r="S18">
-        <v>0.001766469011225394</v>
+        <v>0.003257216449914581</v>
       </c>
       <c r="T18">
-        <v>0.001233849729248315</v>
+        <v>0.002347104420498116</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H19">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I19">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J19">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.094370666666666</v>
+        <v>7.906212666666666</v>
       </c>
       <c r="N19">
-        <v>15.283112</v>
+        <v>23.718638</v>
       </c>
       <c r="O19">
-        <v>0.0147093819419403</v>
+        <v>0.02521781829607561</v>
       </c>
       <c r="P19">
-        <v>0.01475412008028422</v>
+        <v>0.02531699325449539</v>
       </c>
       <c r="Q19">
-        <v>37.04611320406534</v>
+        <v>80.02877975835665</v>
       </c>
       <c r="R19">
-        <v>222.276679224392</v>
+        <v>480.1726785501399</v>
       </c>
       <c r="S19">
-        <v>0.001882003055099026</v>
+        <v>0.005385659241181766</v>
       </c>
       <c r="T19">
-        <v>0.001314548370349046</v>
+        <v>0.003880830398178097</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H20">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I20">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J20">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.150518</v>
+        <v>3.6844455</v>
       </c>
       <c r="N20">
-        <v>6.301036</v>
+        <v>7.368891000000001</v>
       </c>
       <c r="O20">
-        <v>0.00909674140521077</v>
+        <v>0.01175198303639443</v>
       </c>
       <c r="P20">
-        <v>0.006082939245239698</v>
+        <v>0.007865466969060864</v>
       </c>
       <c r="Q20">
-        <v>22.910473955719</v>
+        <v>37.2949337290575</v>
       </c>
       <c r="R20">
-        <v>91.64189582287599</v>
+        <v>149.17973491623</v>
       </c>
       <c r="S20">
-        <v>0.001163889494720278</v>
+        <v>0.002509819656049252</v>
       </c>
       <c r="T20">
-        <v>0.0005419718579115742</v>
+        <v>0.001205693859557239</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H21">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I21">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J21">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.801979333333333</v>
+        <v>3.386921</v>
       </c>
       <c r="N21">
-        <v>14.405938</v>
+        <v>10.160763</v>
       </c>
       <c r="O21">
-        <v>0.01386513717061757</v>
+        <v>0.01080299278076119</v>
       </c>
       <c r="P21">
-        <v>0.01390730756413547</v>
+        <v>0.01084547807220323</v>
       </c>
       <c r="Q21">
-        <v>34.91985205360966</v>
+        <v>34.28331189606499</v>
       </c>
       <c r="R21">
-        <v>209.519112321658</v>
+        <v>205.69987137639</v>
       </c>
       <c r="S21">
-        <v>0.001773985516010557</v>
+        <v>0.002307147954634147</v>
       </c>
       <c r="T21">
-        <v>0.001239099884974304</v>
+        <v>0.001662498408175178</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H22">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I22">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J22">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>328.5062863333333</v>
+        <v>293.7577056666667</v>
       </c>
       <c r="N22">
-        <v>985.518859</v>
+        <v>881.273117</v>
       </c>
       <c r="O22">
-        <v>0.9485223498994318</v>
+        <v>0.9369756110667984</v>
       </c>
       <c r="P22">
-        <v>0.9514072518130271</v>
+        <v>0.940660486426629</v>
       </c>
       <c r="Q22">
-        <v>207.2886711993832</v>
+        <v>83.1608480895289</v>
       </c>
       <c r="R22">
-        <v>1865.598040794449</v>
+        <v>748.44763280576</v>
       </c>
       <c r="S22">
-        <v>0.01053060304425799</v>
+        <v>0.005596436574070303</v>
       </c>
       <c r="T22">
-        <v>0.01103318113627638</v>
+        <v>0.006049070375281112</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H23">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I23">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J23">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>14.344899</v>
       </c>
       <c r="O23">
-        <v>0.01380638958279946</v>
+        <v>0.01525159481997056</v>
       </c>
       <c r="P23">
-        <v>0.0138483812973136</v>
+        <v>0.01531157527761154</v>
       </c>
       <c r="Q23">
-        <v>3.017227955654333</v>
+        <v>1.353648424746667</v>
       </c>
       <c r="R23">
-        <v>27.155051600889</v>
+        <v>12.18283582272</v>
       </c>
       <c r="S23">
-        <v>0.0001532801079344677</v>
+        <v>9.109584289627721E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001605954747625889</v>
+        <v>9.846357718557261E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H24">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I24">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J24">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.094370666666666</v>
+        <v>7.906212666666666</v>
       </c>
       <c r="N24">
-        <v>15.283112</v>
+        <v>23.718638</v>
       </c>
       <c r="O24">
-        <v>0.0147093819419403</v>
+        <v>0.02521781829607561</v>
       </c>
       <c r="P24">
-        <v>0.01475412008028422</v>
+        <v>0.02531699325449539</v>
       </c>
       <c r="Q24">
-        <v>3.214566570025777</v>
+        <v>2.238196097848889</v>
       </c>
       <c r="R24">
-        <v>28.931099130232</v>
+        <v>20.14376488064</v>
       </c>
       <c r="S24">
-        <v>0.000163305231841267</v>
+        <v>0.0001506228326153896</v>
       </c>
       <c r="T24">
-        <v>0.0001710990525266032</v>
+        <v>0.0001628050461317054</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H25">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I25">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J25">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.150518</v>
+        <v>3.6844455</v>
       </c>
       <c r="N25">
-        <v>6.301036</v>
+        <v>7.368891000000001</v>
       </c>
       <c r="O25">
-        <v>0.00909674140521077</v>
+        <v>0.01175198303639443</v>
       </c>
       <c r="P25">
-        <v>0.006082939245239698</v>
+        <v>0.007865466969060864</v>
       </c>
       <c r="Q25">
-        <v>1.987988409899333</v>
+        <v>1.04304195808</v>
       </c>
       <c r="R25">
-        <v>11.927930459396</v>
+        <v>6.258251748480001</v>
       </c>
       <c r="S25">
-        <v>0.0001009930580388506</v>
+        <v>7.01931052483316E-05</v>
       </c>
       <c r="T25">
-        <v>7.054200018530376E-05</v>
+        <v>5.058016565683533E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6310036666666666</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H26">
-        <v>1.893011</v>
+        <v>0.84928</v>
       </c>
       <c r="I26">
-        <v>0.01110211377241086</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J26">
-        <v>0.011596696488545</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.801979333333333</v>
+        <v>3.386921</v>
       </c>
       <c r="N26">
-        <v>14.405938</v>
+        <v>10.160763</v>
       </c>
       <c r="O26">
-        <v>0.01386513717061757</v>
+        <v>0.01080299278076119</v>
       </c>
       <c r="P26">
-        <v>0.01390730756413547</v>
+        <v>0.01084547807220323</v>
       </c>
       <c r="Q26">
-        <v>3.030066566590888</v>
+        <v>0.9588147556266666</v>
       </c>
       <c r="R26">
-        <v>27.270599099318</v>
+        <v>8.62933280064</v>
       </c>
       <c r="S26">
-        <v>0.0001539323303382791</v>
+        <v>6.45249067249833E-05</v>
       </c>
       <c r="T26">
-        <v>0.000161278824794125</v>
+        <v>6.974361213103071E-05</v>
       </c>
     </row>
   </sheetData>
